--- a/20250321涨停.xlsx
+++ b/20250321涨停.xlsx
@@ -64,36 +64,36 @@
     <t>所属行业</t>
   </si>
   <si>
+    <t>002204</t>
+  </si>
+  <si>
+    <t>002406</t>
+  </si>
+  <si>
+    <t>002713</t>
+  </si>
+  <si>
+    <t>603359</t>
+  </si>
+  <si>
+    <t>002907</t>
+  </si>
+  <si>
     <t>000555</t>
   </si>
   <si>
-    <t>002204</t>
-  </si>
-  <si>
-    <t>002406</t>
-  </si>
-  <si>
-    <t>002713</t>
-  </si>
-  <si>
-    <t>002907</t>
-  </si>
-  <si>
-    <t>603359</t>
-  </si>
-  <si>
     <t>600097</t>
   </si>
   <si>
+    <t>603776</t>
+  </si>
+  <si>
     <t>603028</t>
   </si>
   <si>
     <t>603139</t>
   </si>
   <si>
-    <t>603776</t>
-  </si>
-  <si>
     <t>603949</t>
   </si>
   <si>
@@ -127,12 +127,12 @@
     <t>601608</t>
   </si>
   <si>
+    <t>603767</t>
+  </si>
+  <si>
     <t>601226</t>
   </si>
   <si>
-    <t>603767</t>
-  </si>
-  <si>
     <t>002115</t>
   </si>
   <si>
@@ -205,36 +205,36 @@
     <t>002767</t>
   </si>
   <si>
+    <t>大连重工</t>
+  </si>
+  <si>
+    <t>远东传动</t>
+  </si>
+  <si>
+    <t>东易日盛</t>
+  </si>
+  <si>
+    <t>东珠生态</t>
+  </si>
+  <si>
+    <t>华森制药</t>
+  </si>
+  <si>
     <t>神州信息</t>
   </si>
   <si>
-    <t>大连重工</t>
-  </si>
-  <si>
-    <t>远东传动</t>
-  </si>
-  <si>
-    <t>东易日盛</t>
-  </si>
-  <si>
-    <t>华森制药</t>
-  </si>
-  <si>
-    <t>东珠生态</t>
-  </si>
-  <si>
     <t>开创国际</t>
   </si>
   <si>
+    <t>永安行</t>
+  </si>
+  <si>
     <t>赛福天</t>
   </si>
   <si>
     <t>康惠制药</t>
   </si>
   <si>
-    <t>永安行</t>
-  </si>
-  <si>
     <t>雪龙集团</t>
   </si>
   <si>
@@ -268,12 +268,12 @@
     <t>中信重工</t>
   </si>
   <si>
+    <t>中马传动</t>
+  </si>
+  <si>
     <t>华电科工</t>
   </si>
   <si>
-    <t>中马传动</t>
-  </si>
-  <si>
     <t>三维通信</t>
   </si>
   <si>
@@ -460,12 +460,12 @@
     <t>144324</t>
   </si>
   <si>
+    <t>145657</t>
+  </si>
+  <si>
     <t>110330</t>
   </si>
   <si>
-    <t>145657</t>
-  </si>
-  <si>
     <t>111033</t>
   </si>
   <si>
@@ -520,18 +520,18 @@
     <t>142036</t>
   </si>
   <si>
+    <t>3/3</t>
+  </si>
+  <si>
+    <t>8/4</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
     <t>4/2</t>
   </si>
   <si>
-    <t>3/3</t>
-  </si>
-  <si>
-    <t>8/4</t>
-  </si>
-  <si>
-    <t>1/1</t>
-  </si>
-  <si>
     <t>2/2</t>
   </si>
   <si>
@@ -550,31 +550,31 @@
     <t>5/4</t>
   </si>
   <si>
+    <t>工程机械</t>
+  </si>
+  <si>
+    <t>汽车零部</t>
+  </si>
+  <si>
+    <t>装修装饰</t>
+  </si>
+  <si>
+    <t>环保行业</t>
+  </si>
+  <si>
+    <t>中药</t>
+  </si>
+  <si>
     <t>互联网服</t>
   </si>
   <si>
-    <t>工程机械</t>
-  </si>
-  <si>
-    <t>汽车零部</t>
-  </si>
-  <si>
-    <t>装修装饰</t>
-  </si>
-  <si>
-    <t>中药</t>
-  </si>
-  <si>
-    <t>环保行业</t>
-  </si>
-  <si>
     <t>农牧饲渔</t>
   </si>
   <si>
+    <t>专业服务</t>
+  </si>
+  <si>
     <t>通用设备</t>
-  </si>
-  <si>
-    <t>专业服务</t>
   </si>
   <si>
     <t>专用设备</t>
@@ -1053,40 +1053,40 @@
         <v>63</v>
       </c>
       <c r="E2">
-        <v>9.993108749389648</v>
+        <v>10.06289291381836</v>
       </c>
       <c r="F2">
-        <v>15.96</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>2161120720</v>
+        <v>161233345</v>
       </c>
       <c r="H2">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="I2">
-        <v>15573359934.72</v>
+        <v>13519590224</v>
       </c>
       <c r="J2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>79829430</v>
+        <v>578934755</v>
       </c>
       <c r="L2" t="s">
         <v>110</v>
       </c>
       <c r="M2" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="N2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O2" t="s">
         <v>168</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="s">
         <v>178</v>
@@ -1106,34 +1106,34 @@
         <v>64</v>
       </c>
       <c r="E3">
-        <v>10.06289291381836</v>
+        <v>10.01011085510254</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>10.88</v>
       </c>
       <c r="G3">
-        <v>161233345</v>
+        <v>3643606176</v>
       </c>
       <c r="H3">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="I3">
-        <v>13519590224</v>
+        <v>7944848957.440001</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="K3">
-        <v>578934755</v>
+        <v>35558070</v>
       </c>
       <c r="L3" t="s">
         <v>110</v>
       </c>
       <c r="M3" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O3" t="s">
         <v>169</v>
@@ -1159,37 +1159,37 @@
         <v>65</v>
       </c>
       <c r="E4">
-        <v>10.01011085510254</v>
+        <v>9.984399795532227</v>
       </c>
       <c r="F4">
-        <v>10.88</v>
+        <v>7.05</v>
       </c>
       <c r="G4">
-        <v>3643606176</v>
+        <v>34784841</v>
       </c>
       <c r="H4">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I4">
-        <v>7944848957.440001</v>
+        <v>2957735680.8</v>
       </c>
       <c r="J4">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>35558070</v>
+        <v>151708809</v>
       </c>
       <c r="L4" t="s">
         <v>110</v>
       </c>
       <c r="M4" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="N4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P4">
         <v>3</v>
@@ -1212,25 +1212,25 @@
         <v>66</v>
       </c>
       <c r="E5">
-        <v>9.984399795532227</v>
+        <v>9.954058647155762</v>
       </c>
       <c r="F5">
-        <v>7.05</v>
+        <v>7.18</v>
       </c>
       <c r="G5">
-        <v>34784841</v>
+        <v>80207737</v>
       </c>
       <c r="H5">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I5">
-        <v>2957735680.8</v>
+        <v>3202969280</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>151708809</v>
+        <v>139178886</v>
       </c>
       <c r="L5" t="s">
         <v>110</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -1318,40 +1318,40 @@
         <v>68</v>
       </c>
       <c r="E7">
-        <v>9.954058647155762</v>
+        <v>9.993108749389648</v>
       </c>
       <c r="F7">
-        <v>7.18</v>
+        <v>15.96</v>
       </c>
       <c r="G7">
-        <v>80207737</v>
+        <v>2161120720</v>
       </c>
       <c r="H7">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="I7">
-        <v>3202969280</v>
+        <v>15573359934.72</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K7">
-        <v>139178886</v>
+        <v>79829430</v>
       </c>
       <c r="L7" t="s">
         <v>110</v>
       </c>
       <c r="M7" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="s">
         <v>183</v>
@@ -1424,25 +1424,25 @@
         <v>70</v>
       </c>
       <c r="E9">
-        <v>10.06622505187988</v>
+        <v>10.0134105682373</v>
       </c>
       <c r="F9">
-        <v>8.31</v>
+        <v>24.61</v>
       </c>
       <c r="G9">
-        <v>59210744</v>
+        <v>366055728</v>
       </c>
       <c r="H9">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="I9">
-        <v>2385302400</v>
+        <v>5891585715.18</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K9">
-        <v>99835176</v>
+        <v>191380772</v>
       </c>
       <c r="L9" t="s">
         <v>112</v>
@@ -1454,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="s">
         <v>185</v>
@@ -1477,25 +1477,25 @@
         <v>71</v>
       </c>
       <c r="E10">
-        <v>9.989372253417969</v>
+        <v>10.06622505187988</v>
       </c>
       <c r="F10">
-        <v>20.7</v>
+        <v>8.31</v>
       </c>
       <c r="G10">
-        <v>10890270</v>
+        <v>59210744</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I10">
-        <v>2067516000</v>
+        <v>2385302400</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>150555240</v>
+        <v>99835176</v>
       </c>
       <c r="L10" t="s">
         <v>112</v>
@@ -1507,13 +1507,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1530,25 +1530,25 @@
         <v>72</v>
       </c>
       <c r="E11">
-        <v>10.0134105682373</v>
+        <v>9.989372253417969</v>
       </c>
       <c r="F11">
-        <v>24.61</v>
+        <v>20.7</v>
       </c>
       <c r="G11">
-        <v>366055728</v>
+        <v>10890270</v>
       </c>
       <c r="H11">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I11">
-        <v>5891585715.18</v>
+        <v>2067516000</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>191380772</v>
+        <v>150555240</v>
       </c>
       <c r="L11" t="s">
         <v>112</v>
@@ -1560,13 +1560,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1619,7 +1619,7 @@
         <v>4</v>
       </c>
       <c r="Q12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -1831,7 +1831,7 @@
         <v>2</v>
       </c>
       <c r="Q16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1931,7 +1931,7 @@
         <v>2</v>
       </c>
       <c r="O18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -1984,13 +1984,13 @@
         <v>4</v>
       </c>
       <c r="O19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P19">
         <v>3</v>
       </c>
       <c r="Q19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -2037,13 +2037,13 @@
         <v>4</v>
       </c>
       <c r="O20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P20">
         <v>3</v>
       </c>
       <c r="Q20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -2166,40 +2166,40 @@
         <v>84</v>
       </c>
       <c r="E23">
-        <v>9.985527992248535</v>
+        <v>10.01615524291992</v>
       </c>
       <c r="F23">
-        <v>7.6</v>
+        <v>20.43</v>
       </c>
       <c r="G23">
-        <v>224781898</v>
+        <v>1301152160</v>
       </c>
       <c r="H23">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="I23">
-        <v>8859489510.4</v>
+        <v>6305341626.72</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="K23">
-        <v>57236626</v>
+        <v>39736758</v>
       </c>
       <c r="L23" t="s">
         <v>123</v>
       </c>
       <c r="M23" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O23" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="s">
         <v>179</v>
@@ -2219,43 +2219,43 @@
         <v>85</v>
       </c>
       <c r="E24">
-        <v>10.01615524291992</v>
+        <v>9.985527992248535</v>
       </c>
       <c r="F24">
-        <v>20.43</v>
+        <v>7.6</v>
       </c>
       <c r="G24">
-        <v>1301152160</v>
+        <v>224781898</v>
       </c>
       <c r="H24">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="I24">
-        <v>6305341626.72</v>
+        <v>8859489510.4</v>
       </c>
       <c r="J24">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="K24">
-        <v>39736758</v>
+        <v>57236626</v>
       </c>
       <c r="L24" t="s">
         <v>123</v>
       </c>
       <c r="M24" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="N24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="P24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2302,13 +2302,13 @@
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P25">
         <v>1</v>
       </c>
       <c r="Q25" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P27">
         <v>1</v>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P28">
         <v>1</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P29">
         <v>1</v>
@@ -2567,7 +2567,7 @@
         <v>7</v>
       </c>
       <c r="O30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P30">
         <v>1</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P31">
         <v>1</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P32">
         <v>1</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P33">
         <v>1</v>
@@ -2779,7 +2779,7 @@
         <v>4</v>
       </c>
       <c r="O34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P34">
         <v>1</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P35">
         <v>1</v>
@@ -2885,7 +2885,7 @@
         <v>5</v>
       </c>
       <c r="O36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P36">
         <v>1</v>
@@ -2938,7 +2938,7 @@
         <v>6</v>
       </c>
       <c r="O37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P37">
         <v>1</v>
@@ -2991,7 +2991,7 @@
         <v>4</v>
       </c>
       <c r="O38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P38">
         <v>1</v>
@@ -3097,7 +3097,7 @@
         <v>2</v>
       </c>
       <c r="O40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P40">
         <v>1</v>
@@ -3150,13 +3150,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P41">
         <v>1</v>
       </c>
       <c r="Q41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P42">
         <v>1</v>
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="Q43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3315,7 +3315,7 @@
         <v>4</v>
       </c>
       <c r="Q44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P45">
         <v>1</v>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -3468,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P47">
         <v>1</v>
       </c>
       <c r="Q47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P48">
         <v>1</v>
